--- a/documentation/Protocol.xlsx
+++ b/documentation/Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Just Data\Projects\SyArm_Mk1\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7FE83B-C660-45D9-8553-49BD515F4295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C3D410-0402-4E9F-A1CA-CCC788261D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{DCC34F25-C59C-40CA-870E-EA529E1E6B02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>Writing project description</t>
+  </si>
+  <si>
+    <t>Testing input systems, (Raspbarry Pi GPIO still not working correctly)</t>
+  </si>
+  <si>
+    <t>Writing documentation, improving data transfer and cloud</t>
+  </si>
+  <si>
+    <t>Writing docs, renaming construction files for better structure</t>
+  </si>
+  <si>
+    <t>Summ</t>
   </si>
 </sst>
 </file>
@@ -61,7 +73,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ am/pm"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -98,7 +110,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -169,14 +181,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -186,6 +248,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +573,7 @@
   <dimension ref="B2:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,184 +632,207 @@
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="1">
+        <v>44885</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="B8" s="1">
+        <v>44886</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
+      <c r="B9" s="11">
+        <v>44887</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="15">
+        <f>SUM(C4:C9)</f>
+        <v>0.66666666666666674</v>
+      </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+    <row r="11" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="3"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="3"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="3"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="3"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/documentation/Protocol.xlsx
+++ b/documentation/Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Just Data\Projects\SyArm_Mk1\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C3D410-0402-4E9F-A1CA-CCC788261D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB1E93E-4F4A-454E-8D7B-000183D33F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{DCC34F25-C59C-40CA-870E-EA529E1E6B02}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,18 @@
   </si>
   <si>
     <t>Summ</t>
+  </si>
+  <si>
+    <t>Restructuring construction, Fixing issues in the library</t>
+  </si>
+  <si>
+    <t>Exact positioning, new concepts of SyArm MAX</t>
+  </si>
+  <si>
+    <t>Imporving acceleration curves and some fixes</t>
+  </si>
+  <si>
+    <t>New acceleration curves based on velocity as stated in article</t>
   </si>
 </sst>
 </file>
@@ -110,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -122,17 +134,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -213,6 +214,30 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -226,7 +251,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -235,27 +260,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4355E25-DB2D-4461-926F-4FE395D2567A}">
-  <dimension ref="B2:D42"/>
+  <dimension ref="B2:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,256 +611,308 @@
     <col min="4" max="4" width="85.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="1">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="11">
         <v>44686</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="1">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="11">
         <v>44884</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="14">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="1">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="11">
         <v>44883</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="14">
         <v>0.125</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="1">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="11">
         <v>44885</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="14">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="1">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="11">
         <v>44886</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="14">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9" s="11">
         <v>44887</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="14">
         <v>0.20833333333333334</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="6">
+        <v>44896</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="6">
+        <v>44898</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0.125</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="6">
+        <v>44899</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="6">
+        <v>44900</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="15">
-        <f>SUM(C4:C9)</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10"/>
+      <c r="C15" s="18">
+        <f>SUM(C4:C13)</f>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="8"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B38" s="8"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B42" s="8"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
